--- a/Document/Alan/jnltrav_alan.xlsx
+++ b/Document/Alan/jnltrav_alan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alabitter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>Module :</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>j'ai rédiger le JNLTRAV</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Rédaction JNLTRAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai fais en sorte qu'il y ai quand même un fichier erreur qui se crée meme s'il n'y a pas d'erreur  </t>
+  </si>
+  <si>
+    <t>J'ai rédiger le JNLTRAV</t>
   </si>
 </sst>
 </file>
@@ -1051,16 +1063,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1084,6 +1086,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1998,10 +2010,10 @@
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -2823,27 +2835,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2873,27 +2885,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2932,7 +2944,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -2941,7 +2953,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="91"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3468,7 +3480,7 @@
         <f>SUM(B3:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="13"/>
@@ -3611,7 +3623,7 @@
         <f>SUM(B17:B26)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="13"/>
@@ -3754,7 +3766,7 @@
         <f>SUM(B31:B40)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="13"/>
@@ -3766,7 +3778,7 @@
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="89" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4206,8 +4218,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4249,49 +4261,49 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="92" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="93" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="94" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" s="53" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="93" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="94" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="10"/>
@@ -4370,7 +4382,7 @@
         <f>SUM(B3:B17)</f>
         <v>9</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="49"/>
@@ -4410,16 +4422,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4571,9 +4595,9 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B22:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="49"/>
@@ -4726,7 +4750,7 @@
         <f>SUM(B41:B55)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="49"/>
@@ -4738,7 +4762,7 @@
       <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="93" t="s">
+      <c r="A58" s="89" t="s">
         <v>28</v>
       </c>
     </row>
